--- a/docs/quizsheets/m1_mada_course_tools_student.xlsx
+++ b/docs/quizsheets/m1_mada_course_tools_student.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mada_course_tools</t>
+          <t>m1_mada_course_tools</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -407,11 +407,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>quiz1q2</t>
@@ -429,11 +424,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>quiz1q3</t>
@@ -451,11 +441,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>quiz1q4</t>
@@ -473,11 +458,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>quiz1q5</t>
@@ -495,11 +475,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>quiz1q6</t>
@@ -517,11 +492,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>quiz1q7</t>
@@ -539,11 +509,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>quiz1q8</t>
@@ -551,7 +516,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>I will use eLC for distribution of reading material.</t>
+          <t>eLC will be used for distribution of reading material.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -561,11 +526,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>quiz1q9</t>
@@ -578,16 +538,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Capitalization does not matter.</t>
+          <t>Capitalization does not matter</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>quiz1q10</t>
@@ -605,11 +560,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>quiz1q11</t>
@@ -627,11 +577,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>quiz1q12</t>
@@ -649,11 +594,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>mada_course_tools</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>quiz1q13</t>
